--- a/data/W46_2025.xlsx
+++ b/data/W46_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\TEST_selectableweek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C426AA6-EBE2-403B-B8D9-8CE43E03C496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE7921E-659E-47CD-B5E3-D238D85CA7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>GCMC Design team weeky WIP</t>
   </si>
@@ -183,39 +183,9 @@
     <t>due 28 Oct</t>
   </si>
   <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Happy Holiday EDM banners</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>Briefed on 28 Oct</t>
-  </si>
-  <si>
-    <t>Executive MBA FP ad - Forge magazine</t>
-  </si>
-  <si>
-    <t>1st draft sent and approved on 28 Oct</t>
-  </si>
-  <si>
-    <t>Publications 2027</t>
-  </si>
-  <si>
-    <t>IA program sections</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
   </si>
   <si>
-    <t>Med-high</t>
-  </si>
-  <si>
     <t>Last updated 1 Nov, 15:00</t>
   </si>
   <si>
@@ -223,6 +193,9 @@
   </si>
   <si>
     <t>4-11 Nov 2026</t>
+  </si>
+  <si>
+    <t>Extreme</t>
   </si>
 </sst>
 </file>
@@ -671,7 +644,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -686,16 +659,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -717,7 +690,7 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -737,7 +710,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -754,7 +727,7 @@
     </row>
     <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -766,12 +739,12 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -788,7 +761,7 @@
     </row>
     <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -805,7 +778,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -822,7 +795,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -839,7 +812,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -856,7 +829,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -873,7 +846,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -990,56 +963,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
+    <row r="19" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>

--- a/data/W46_2025.xlsx
+++ b/data/W46_2025.xlsx
@@ -456,7 +456,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>11-18 Nov</t>
+          <t>(11-18 Nov 2025)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/data/W46_2025.xlsx
+++ b/data/W46_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\TEST_selectableweek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE7921E-659E-47CD-B5E3-D238D85CA7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B77E2-9151-4539-9246-500A63389268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,10 +192,10 @@
     <t>COP 7777</t>
   </si>
   <si>
-    <t>4-11 Nov 2026</t>
-  </si>
-  <si>
     <t>Extreme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | 4-11 Nov 2026</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
